--- a/SPaniukov/DataStructs.xlsx
+++ b/SPaniukov/DataStructs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -239,19 +239,19 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.9744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="7.36224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="5.52551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.2857142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="12.1581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.7142857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="8.88265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="8.03571428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,14 +650,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -678,14 +675,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/SPaniukov/DataStructs.xlsx
+++ b/SPaniukov/DataStructs.xlsx
@@ -5,19 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="42">
   <si>
     <t>Array</t>
   </si>
@@ -61,22 +59,64 @@
     <t>log n</t>
   </si>
   <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>SortedVector</t>
+  </si>
+  <si>
+    <t>RB Tree</t>
+  </si>
+  <si>
+    <t>Hash Map</t>
+  </si>
+  <si>
     <t>pop_front</t>
   </si>
   <si>
+    <t>[index]</t>
+  </si>
+  <si>
+    <t>O(1)</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
     <t>pop_back</t>
   </si>
   <si>
+    <t>[key]</t>
+  </si>
+  <si>
+    <t>log(n)</t>
+  </si>
+  <si>
     <t>remove_pos</t>
   </si>
   <si>
+    <t>it++</t>
+  </si>
+  <si>
+    <t>O(bc)</t>
+  </si>
+  <si>
     <t>remove_val</t>
   </si>
   <si>
+    <t>insert k</t>
+  </si>
+  <si>
     <t>find</t>
   </si>
   <si>
+    <t>delete k</t>
+  </si>
+  <si>
     <t>min_el</t>
+  </si>
+  <si>
+    <t>find k</t>
   </si>
   <si>
     <t>max_el</t>
@@ -237,21 +277,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.7142857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="8.88265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="8.03571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.2908163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.89795918367347"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="8.63265306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="15.8214285714286"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="12.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="2" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -391,10 +437,23 @@
       <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>8</v>
@@ -410,11 +469,26 @@
       </c>
       <c r="F8" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B9" s="6" t="n">
         <v>1</v>
@@ -430,11 +504,26 @@
       </c>
       <c r="F9" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -450,11 +539,26 @@
       </c>
       <c r="F10" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>6</v>
@@ -470,11 +574,26 @@
       </c>
       <c r="F11" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>8</v>
@@ -491,10 +610,25 @@
       <c r="F12" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="H12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>8</v>
@@ -510,11 +644,26 @@
       </c>
       <c r="F13" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>8</v>
@@ -534,7 +683,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>8</v>
@@ -543,10 +692,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>8</v>
@@ -554,7 +703,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>8</v>
@@ -563,18 +712,18 @@
         <v>8</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>8</v>
@@ -594,7 +743,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>8</v>
@@ -614,7 +763,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B19" s="6" t="n">
         <v>1</v>
@@ -641,54 +790,4 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>